--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>715943</v>
+        <v>714577</v>
       </c>
       <c r="B2" t="n">
-        <v>810006078</v>
+        <v>810015067</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PAINEL HOME DUBLIN</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>16/05/2025</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,24 +525,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>715945</v>
+        <v>714579</v>
       </c>
       <c r="B3" t="n">
-        <v>810002049</v>
+        <v>810006098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>PAINEL SANTORINI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>16/05/2025</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,24 +568,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>715946</v>
+        <v>714580</v>
       </c>
       <c r="B4" t="n">
-        <v>810006068</v>
+        <v>810015079</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>AEREO SIMPLES 0.8M ATENA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,24 +611,24 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>715947</v>
+        <v>715754</v>
       </c>
       <c r="B5" t="n">
-        <v>810003053</v>
+        <v>810003088</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -654,24 +654,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>715948</v>
+        <v>715942</v>
       </c>
       <c r="B6" t="n">
-        <v>810003051</v>
+        <v>810014010</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>MULTIUSO RETRO  PARTE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>19/05/2025</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -697,24 +697,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>719933</v>
+        <v>715943</v>
       </c>
       <c r="B7" t="n">
-        <v>810015092</v>
+        <v>810006078</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>PAINEL HOME DUBLIN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,14 +740,14 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>715949</v>
+        <v>715945</v>
       </c>
       <c r="B8" t="n">
-        <v>810002042</v>
+        <v>810002049</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,24 +783,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>717258</v>
+        <v>715946</v>
       </c>
       <c r="B9" t="n">
-        <v>810012013</v>
+        <v>810006068</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -826,24 +826,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>715950</v>
+        <v>715947</v>
       </c>
       <c r="B10" t="n">
-        <v>810003063</v>
+        <v>810003053</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -869,14 +869,14 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>712371</v>
+        <v>715948</v>
       </c>
       <c r="B11" t="n">
-        <v>810006083</v>
+        <v>810003051</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EXPOSITOR SIMPLES 3.05M</t>
+          <t>RACK SAO FRANCISCO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -912,24 +912,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>712372</v>
+        <v>719933</v>
       </c>
       <c r="B12" t="n">
-        <v>810006084</v>
+        <v>810015092</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -955,14 +955,14 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>714581</v>
+        <v>715949</v>
       </c>
       <c r="B13" t="n">
-        <v>810002048</v>
+        <v>810002042</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -998,24 +998,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>714583</v>
+        <v>717258</v>
       </c>
       <c r="B14" t="n">
-        <v>810015074</v>
+        <v>810012013</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1041,24 +1041,24 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>715951</v>
+        <v>715950</v>
       </c>
       <c r="B15" t="n">
-        <v>810006095</v>
+        <v>810003063</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>RACK CRONOS 2.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1084,24 +1084,24 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>717256</v>
+        <v>712371</v>
       </c>
       <c r="B16" t="n">
-        <v>810003060</v>
+        <v>810006083</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>EXPOSITOR SIMPLES 3.05M</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1127,24 +1127,24 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>717257</v>
+        <v>712372</v>
       </c>
       <c r="B17" t="n">
-        <v>810003055</v>
+        <v>810006084</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RACK OURO PRETO</t>
+          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1170,24 +1170,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>717259</v>
+        <v>714581</v>
       </c>
       <c r="B18" t="n">
-        <v>810006068</v>
+        <v>810002048</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1213,24 +1213,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>717267</v>
+        <v>714583</v>
       </c>
       <c r="B19" t="n">
-        <v>810012015</v>
+        <v>810015074</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1256,14 +1256,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>717260</v>
+        <v>715951</v>
       </c>
       <c r="B20" t="n">
-        <v>810014032</v>
+        <v>810006095</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1299,14 +1299,14 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>717261</v>
+        <v>717256</v>
       </c>
       <c r="B21" t="n">
-        <v>810003058</v>
+        <v>810003060</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1342,14 +1342,14 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>717262</v>
+        <v>717257</v>
       </c>
       <c r="B22" t="n">
-        <v>810015068</v>
+        <v>810003055</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>RACK OURO PRETO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1385,14 +1385,14 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>717263</v>
+        <v>717259</v>
       </c>
       <c r="B23" t="n">
-        <v>810003056</v>
+        <v>810006068</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1428,24 +1428,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>717265</v>
+        <v>717267</v>
       </c>
       <c r="B24" t="n">
-        <v>810002042</v>
+        <v>810012015</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1471,24 +1471,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>717266</v>
+        <v>717260</v>
       </c>
       <c r="B25" t="n">
-        <v>810002041</v>
+        <v>810014032</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1514,24 +1514,24 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>717268</v>
+        <v>717261</v>
       </c>
       <c r="B26" t="n">
-        <v>810014029</v>
+        <v>810003058</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NICHO 2.2</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1557,24 +1557,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>717264</v>
+        <v>717262</v>
       </c>
       <c r="B27" t="n">
-        <v>810015074</v>
+        <v>810015068</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1600,24 +1600,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>717271</v>
+        <v>717263</v>
       </c>
       <c r="B28" t="n">
-        <v>810015073</v>
+        <v>810003056</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1643,24 +1643,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>717272</v>
+        <v>717265</v>
       </c>
       <c r="B29" t="n">
-        <v>810006099</v>
+        <v>810002042</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1686,24 +1686,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>717273</v>
+        <v>717266</v>
       </c>
       <c r="B30" t="n">
-        <v>810014031</v>
+        <v>810002041</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1729,24 +1729,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>719058</v>
+        <v>717268</v>
       </c>
       <c r="B31" t="n">
-        <v>810015067</v>
+        <v>810014029</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>NICHO 2.2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1772,24 +1772,24 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>719059</v>
+        <v>717264</v>
       </c>
       <c r="B32" t="n">
-        <v>810015066</v>
+        <v>810015074</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1815,24 +1815,24 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>719060</v>
+        <v>717271</v>
       </c>
       <c r="B33" t="n">
-        <v>810013012</v>
+        <v>810015073</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1858,24 +1858,24 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>719061</v>
+        <v>717272</v>
       </c>
       <c r="B34" t="n">
-        <v>810003089</v>
+        <v>810006099</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1901,24 +1901,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>719062</v>
+        <v>717273</v>
       </c>
       <c r="B35" t="n">
-        <v>810015060</v>
+        <v>810014031</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1944,19 +1944,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>719063</v>
+        <v>719058</v>
       </c>
       <c r="B36" t="n">
-        <v>810015065</v>
+        <v>810015067</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1987,19 +1987,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>720831</v>
+        <v>719059</v>
       </c>
       <c r="B37" t="n">
-        <v>810015004</v>
+        <v>810015066</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2030,19 +2030,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>720832</v>
+        <v>719060</v>
       </c>
       <c r="B38" t="n">
-        <v>810015008</v>
+        <v>810013012</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2073,19 +2073,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>717274</v>
+        <v>719061</v>
       </c>
       <c r="B39" t="n">
-        <v>810015086</v>
+        <v>810003089</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2116,19 +2116,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>719064</v>
+        <v>719062</v>
       </c>
       <c r="B40" t="n">
-        <v>810012004</v>
+        <v>810015060</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2159,24 +2159,24 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>719065</v>
+        <v>719063</v>
       </c>
       <c r="B41" t="n">
-        <v>810002042</v>
+        <v>810015065</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2202,24 +2202,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>719066</v>
+        <v>720831</v>
       </c>
       <c r="B42" t="n">
-        <v>810014027</v>
+        <v>810015004</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2245,14 +2245,14 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>719068</v>
+        <v>720832</v>
       </c>
       <c r="B43" t="n">
-        <v>810003058</v>
+        <v>810015008</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2288,24 +2288,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>719091</v>
+        <v>717274</v>
       </c>
       <c r="B44" t="n">
-        <v>810014047</v>
+        <v>810015086</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2331,24 +2331,24 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>719074</v>
+        <v>719064</v>
       </c>
       <c r="B45" t="n">
-        <v>810014044</v>
+        <v>810012004</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2374,24 +2374,24 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>719076</v>
+        <v>719065</v>
       </c>
       <c r="B46" t="n">
-        <v>810001027</v>
+        <v>810002042</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2417,24 +2417,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>717269</v>
+        <v>719066</v>
       </c>
       <c r="B47" t="n">
-        <v>810002036</v>
+        <v>810014027</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>MODULO LATERAL OURO PRETO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2460,24 +2460,24 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>719080</v>
+        <v>719068</v>
       </c>
       <c r="B48" t="n">
-        <v>810006049</v>
+        <v>810003058</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2503,14 +2503,14 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>719082</v>
+        <v>719091</v>
       </c>
       <c r="B49" t="n">
-        <v>810014046</v>
+        <v>810014047</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2546,24 +2546,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>720465</v>
+        <v>719074</v>
       </c>
       <c r="B50" t="n">
-        <v>810002046</v>
+        <v>810014044</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2589,24 +2589,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>720466</v>
+        <v>719076</v>
       </c>
       <c r="B51" t="n">
-        <v>810002040</v>
+        <v>810001027</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>ESTANTE NEW BAHIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2632,24 +2632,24 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>720467</v>
+        <v>717269</v>
       </c>
       <c r="B52" t="n">
-        <v>810006076</v>
+        <v>810002036</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2675,19 +2675,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>719085</v>
+        <v>719080</v>
       </c>
       <c r="B53" t="n">
-        <v>810003078</v>
+        <v>810006049</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2718,24 +2718,24 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>719086</v>
+        <v>719082</v>
       </c>
       <c r="B54" t="n">
-        <v>810001023</v>
+        <v>810014046</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2761,24 +2761,24 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>719087</v>
+        <v>720465</v>
       </c>
       <c r="B55" t="n">
-        <v>810013015</v>
+        <v>810002046</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2804,24 +2804,24 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>719088</v>
+        <v>720466</v>
       </c>
       <c r="B56" t="n">
-        <v>810006054</v>
+        <v>810002040</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2847,24 +2847,24 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>719089</v>
+        <v>720467</v>
       </c>
       <c r="B57" t="n">
-        <v>810014048</v>
+        <v>810006076</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2890,24 +2890,24 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>714585</v>
+        <v>719085</v>
       </c>
       <c r="B58" t="n">
-        <v>810003088</v>
+        <v>810003078</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2933,14 +2933,14 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>719067</v>
+        <v>719086</v>
       </c>
       <c r="B59" t="n">
-        <v>810002036</v>
+        <v>810001023</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2976,24 +2976,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>714586</v>
+        <v>719087</v>
       </c>
       <c r="B60" t="n">
-        <v>810005021</v>
+        <v>810013015</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3019,24 +3019,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>714589</v>
+        <v>719088</v>
       </c>
       <c r="B61" t="n">
-        <v>810004014</v>
+        <v>810006054</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3062,24 +3062,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>719090</v>
+        <v>719089</v>
       </c>
       <c r="B62" t="n">
-        <v>810002049</v>
+        <v>810014048</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3105,24 +3105,24 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>719070</v>
+        <v>714585</v>
       </c>
       <c r="B63" t="n">
-        <v>810014049</v>
+        <v>810003088</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3148,24 +3148,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>717275</v>
+        <v>719067</v>
       </c>
       <c r="B64" t="n">
-        <v>810002050</v>
+        <v>810002036</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3191,14 +3191,14 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>720833</v>
+        <v>714586</v>
       </c>
       <c r="B65" t="n">
-        <v>810014051</v>
+        <v>810005021</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3234,14 +3234,14 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>720834</v>
+        <v>714589</v>
       </c>
       <c r="B66" t="n">
-        <v>810003060</v>
+        <v>810004014</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3277,24 +3277,24 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>720835</v>
+        <v>719090</v>
       </c>
       <c r="B67" t="n">
-        <v>810006099</v>
+        <v>810002049</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3320,24 +3320,24 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>720836</v>
+        <v>719070</v>
       </c>
       <c r="B68" t="n">
-        <v>810005014</v>
+        <v>810014049</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3363,24 +3363,24 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>720837</v>
+        <v>717275</v>
       </c>
       <c r="B69" t="n">
-        <v>810012001</v>
+        <v>810002050</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3406,14 +3406,14 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>720838</v>
+        <v>720833</v>
       </c>
       <c r="B70" t="n">
-        <v>810006093</v>
+        <v>810014051</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3449,14 +3449,14 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>720839</v>
+        <v>720834</v>
       </c>
       <c r="B71" t="n">
-        <v>810015073</v>
+        <v>810003060</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3492,14 +3492,14 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>720840</v>
+        <v>720835</v>
       </c>
       <c r="B72" t="n">
-        <v>810002042</v>
+        <v>810006099</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3535,14 +3535,14 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>720841</v>
+        <v>720836</v>
       </c>
       <c r="B73" t="n">
-        <v>810006097</v>
+        <v>810005014</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3578,24 +3578,24 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>720843</v>
+        <v>720837</v>
       </c>
       <c r="B74" t="n">
-        <v>810005012</v>
+        <v>810012001</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3621,24 +3621,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>720844</v>
+        <v>720838</v>
       </c>
       <c r="B75" t="n">
-        <v>810012019</v>
+        <v>810006093</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3664,24 +3664,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>715952</v>
+        <v>720839</v>
       </c>
       <c r="B76" t="n">
-        <v>810005020</v>
+        <v>810015073</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3707,24 +3707,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>715953</v>
+        <v>720840</v>
       </c>
       <c r="B77" t="n">
-        <v>810004013</v>
+        <v>810002042</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3750,19 +3750,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>719069</v>
+        <v>720841</v>
       </c>
       <c r="B78" t="n">
-        <v>810014032</v>
+        <v>810006097</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3793,14 +3793,14 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>719071</v>
+        <v>720843</v>
       </c>
       <c r="B79" t="n">
-        <v>810006068</v>
+        <v>810005012</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3836,19 +3836,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>720845</v>
+        <v>720844</v>
       </c>
       <c r="B80" t="n">
-        <v>810006063</v>
+        <v>810012019</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3879,24 +3879,24 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>720846</v>
+        <v>715952</v>
       </c>
       <c r="B81" t="n">
-        <v>810015062</v>
+        <v>810005020</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3922,24 +3922,24 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>720847</v>
+        <v>715953</v>
       </c>
       <c r="B82" t="n">
-        <v>810015063</v>
+        <v>810004013</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3965,24 +3965,24 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>720848</v>
+        <v>719069</v>
       </c>
       <c r="B83" t="n">
-        <v>810006059</v>
+        <v>810014032</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4008,24 +4008,24 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>720849</v>
+        <v>719071</v>
       </c>
       <c r="B84" t="n">
-        <v>810012016</v>
+        <v>810006068</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4051,14 +4051,14 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>720850</v>
+        <v>720845</v>
       </c>
       <c r="B85" t="n">
-        <v>810003089</v>
+        <v>810006063</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4094,14 +4094,14 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>720851</v>
+        <v>720846</v>
       </c>
       <c r="B86" t="n">
-        <v>810003053</v>
+        <v>810015062</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4137,14 +4137,14 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>720852</v>
+        <v>720847</v>
       </c>
       <c r="B87" t="n">
-        <v>810006092</v>
+        <v>810015063</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4180,14 +4180,14 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>720853</v>
+        <v>720848</v>
       </c>
       <c r="B88" t="n">
-        <v>810015059</v>
+        <v>810006059</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4223,14 +4223,14 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>720854</v>
+        <v>720849</v>
       </c>
       <c r="B89" t="n">
-        <v>810012003</v>
+        <v>810012016</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4266,14 +4266,14 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>720855</v>
+        <v>720850</v>
       </c>
       <c r="B90" t="n">
-        <v>810003065</v>
+        <v>810003089</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4309,14 +4309,14 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>720856</v>
+        <v>720851</v>
       </c>
       <c r="B91" t="n">
-        <v>810002043</v>
+        <v>810003053</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4352,14 +4352,14 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>720857</v>
+        <v>720852</v>
       </c>
       <c r="B92" t="n">
-        <v>810014031</v>
+        <v>810006092</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4395,14 +4395,14 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>720858</v>
+        <v>720853</v>
       </c>
       <c r="B93" t="n">
-        <v>810014012</v>
+        <v>810015059</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4438,24 +4438,24 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>720859</v>
+        <v>720854</v>
       </c>
       <c r="B94" t="n">
-        <v>810005011</v>
+        <v>810012003</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4481,24 +4481,24 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>720860</v>
+        <v>720855</v>
       </c>
       <c r="B95" t="n">
-        <v>810005021</v>
+        <v>810003065</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4524,42 +4524,257 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>720856</v>
+      </c>
+      <c r="B96" t="n">
+        <v>810002043</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>HOME VIENA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>720857</v>
+      </c>
+      <c r="B97" t="n">
+        <v>810014031</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PRATELEIRA 2.2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>720858</v>
+      </c>
+      <c r="B98" t="n">
+        <v>810014012</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>720859</v>
+      </c>
+      <c r="B99" t="n">
+        <v>810005011</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>720860</v>
+      </c>
+      <c r="B100" t="n">
+        <v>810005021</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>APARADOR MONACO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
         <v>720861</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B101" t="n">
         <v>810004014</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>AMARELO</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Não Conferido</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Não Conferido</t>
         </is>

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>N Pedido</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cor Etiq</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data Emb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Lote</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>N Pedido</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Produto</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cor Etiq</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Data Emb</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -482,25 +482,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>714577</v>
-      </c>
-      <c r="B2" t="n">
-        <v>810015067</v>
+        <v>810006078</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>16/05/2025</t>
-        </is>
+          <t>PAINEL HOME DUBLIN</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>715943</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -525,25 +525,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>714579</v>
-      </c>
-      <c r="B3" t="n">
-        <v>810006098</v>
+        <v>810002049</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAINEL SANTORINI</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16/05/2025</t>
-        </is>
+          <t>HOME NAPOLI</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>715945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -568,25 +568,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>714580</v>
-      </c>
-      <c r="B4" t="n">
-        <v>810015079</v>
+        <v>810006068</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M ATENA</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>715946</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -611,25 +611,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>715754</v>
-      </c>
-      <c r="B5" t="n">
-        <v>810003088</v>
+        <v>810003053</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>20/05/2025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
+          <t>RACK COLORADO</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>715947</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -654,25 +654,25 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>715942</v>
-      </c>
-      <c r="B6" t="n">
-        <v>810014010</v>
+        <v>810003051</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO  PARTE 1</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19/05/2025</t>
-        </is>
+          <t>RACK SAO FRANCISCO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>715948</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,25 +697,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>715943</v>
-      </c>
-      <c r="B7" t="n">
-        <v>810006078</v>
+        <v>810015092</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAINEL HOME DUBLIN</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>719933</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -740,25 +740,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>715945</v>
-      </c>
-      <c r="B8" t="n">
-        <v>810002049</v>
+        <v>810002042</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>715949</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -783,25 +783,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>715946</v>
-      </c>
-      <c r="B9" t="n">
-        <v>810006068</v>
+        <v>810012013</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>717258</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,25 +826,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>715947</v>
-      </c>
-      <c r="B10" t="n">
-        <v>810003053</v>
+        <v>810003063</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
+          <t>RACK CRONOS 2.2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>715950</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -869,25 +869,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>715948</v>
-      </c>
-      <c r="B11" t="n">
-        <v>810003051</v>
+        <v>810006083</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RACK SAO FRANCISCO</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
+          <t>EXPOSITOR SIMPLES 3.05M</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>712371</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -912,25 +912,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>719933</v>
-      </c>
-      <c r="B12" t="n">
-        <v>810015092</v>
+        <v>810006084</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
+          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>712372</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -955,25 +955,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>715949</v>
-      </c>
-      <c r="B13" t="n">
-        <v>810002042</v>
+        <v>810002048</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
+          <t>HOME MUNIQUE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>714581</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -998,25 +998,25 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>717258</v>
-      </c>
-      <c r="B14" t="n">
-        <v>810012013</v>
+        <v>810015074</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>22/05/2025</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>714583</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1041,25 +1041,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>715950</v>
-      </c>
-      <c r="B15" t="n">
-        <v>810003063</v>
+        <v>810006095</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RACK CRONOS 2.2</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
+          <t>PAINEL HOME ZURIQUE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>715951</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1084,25 +1084,25 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>712371</v>
-      </c>
-      <c r="B16" t="n">
-        <v>810006083</v>
+        <v>810003060</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EXPOSITOR SIMPLES 3.05M</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
+          <t>RACK ESMERALDA</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>717256</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1127,25 +1127,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>712372</v>
-      </c>
-      <c r="B17" t="n">
-        <v>810006084</v>
+        <v>810003055</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
+          <t>RACK OURO PRETO</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>717257</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1170,25 +1170,25 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>714581</v>
-      </c>
-      <c r="B18" t="n">
-        <v>810002048</v>
+        <v>810006068</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>717259</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1213,25 +1213,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>714583</v>
-      </c>
-      <c r="B19" t="n">
-        <v>810015074</v>
+        <v>810012015</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22/05/2025</t>
-        </is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>717267</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1256,25 +1256,25 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>715951</v>
-      </c>
-      <c r="B20" t="n">
-        <v>810006095</v>
+        <v>810014032</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
+          <t>MODULO RIPADO 0.4</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>717260</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1299,25 +1299,25 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>717256</v>
-      </c>
-      <c r="B21" t="n">
-        <v>810003060</v>
+        <v>810003058</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
+          <t>RACK AURUM</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>717261</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1342,25 +1342,25 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>717257</v>
-      </c>
-      <c r="B22" t="n">
-        <v>810003055</v>
+        <v>810015068</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RACK OURO PRETO</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
+          <t>BALCAO 0.8M ALLURE</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>717262</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1385,25 +1385,25 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>717259</v>
-      </c>
-      <c r="B23" t="n">
-        <v>810006068</v>
+        <v>810003056</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23/05/2025</t>
-        </is>
+          <t>RACK RUBI</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>717263</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1428,25 +1428,25 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>717267</v>
-      </c>
-      <c r="B24" t="n">
-        <v>810012015</v>
+        <v>810002042</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>24/05/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>717265</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1471,25 +1471,25 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>717260</v>
-      </c>
-      <c r="B25" t="n">
-        <v>810014032</v>
+        <v>810002041</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>24/05/2025</t>
-        </is>
+          <t>HOME ATLANTA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>717266</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1514,25 +1514,25 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>717261</v>
-      </c>
-      <c r="B26" t="n">
-        <v>810003058</v>
+        <v>810014029</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>24/05/2025</t>
-        </is>
+          <t>NICHO 2.2</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>717268</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1557,25 +1557,25 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>717262</v>
-      </c>
-      <c r="B27" t="n">
-        <v>810015068</v>
+        <v>810015074</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>24/05/2025</t>
-        </is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>717264</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1600,25 +1600,25 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>717263</v>
-      </c>
-      <c r="B28" t="n">
-        <v>810003056</v>
+        <v>810015073</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>26/05/2025</t>
-        </is>
+          <t>AEREO 1.2M ALLURE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>717271</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1643,25 +1643,25 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>717265</v>
-      </c>
-      <c r="B29" t="n">
-        <v>810002042</v>
+        <v>810006099</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>26/05/2025</t>
-        </is>
+          <t>PAINEL HOME HAVANA</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>717272</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1686,25 +1686,25 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>717266</v>
-      </c>
-      <c r="B30" t="n">
-        <v>810002041</v>
+        <v>810014031</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>26/05/2025</t>
-        </is>
+          <t>PRATELEIRA 2.2</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>717273</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1729,25 +1729,25 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>717268</v>
-      </c>
-      <c r="B31" t="n">
-        <v>810014029</v>
+        <v>810015067</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NICHO 2.2</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>719058</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1772,25 +1772,25 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>717264</v>
-      </c>
-      <c r="B32" t="n">
-        <v>810015074</v>
+        <v>810015066</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
+          <t>BALCAO 1.2M ALLURE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>719059</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1815,25 +1815,25 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>717271</v>
-      </c>
-      <c r="B33" t="n">
-        <v>810015073</v>
+        <v>810013012</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
+          <t>MESA DE CABECEIRA BUZIOS</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>719060</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1858,25 +1858,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>717272</v>
-      </c>
-      <c r="B34" t="n">
-        <v>810006099</v>
+        <v>810003089</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
+          <t>RACK DUBAI 1.8</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>719061</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1901,25 +1901,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>717273</v>
-      </c>
-      <c r="B35" t="n">
-        <v>810014031</v>
+        <v>810015060</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>27/05/2025</t>
-        </is>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>719062</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1944,25 +1944,25 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>719058</v>
-      </c>
-      <c r="B36" t="n">
-        <v>810015067</v>
+        <v>810015065</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>BALCAO 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>719063</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1987,25 +1987,25 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>719059</v>
-      </c>
-      <c r="B37" t="n">
-        <v>810015066</v>
+        <v>810015004</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>720831</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2030,25 +2030,25 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>719060</v>
-      </c>
-      <c r="B38" t="n">
-        <v>810013012</v>
+        <v>810015008</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>720832</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2073,25 +2073,25 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>719061</v>
-      </c>
-      <c r="B39" t="n">
-        <v>810003089</v>
+        <v>810015086</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>CRISTALEIRA 0.65M SELENE</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>717274</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2116,25 +2116,25 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>719062</v>
-      </c>
-      <c r="B40" t="n">
-        <v>810015060</v>
+        <v>810012004</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>719064</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2159,25 +2159,25 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>719063</v>
-      </c>
-      <c r="B41" t="n">
-        <v>810015065</v>
+        <v>810002042</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>719065</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2202,25 +2202,25 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>720831</v>
-      </c>
-      <c r="B42" t="n">
-        <v>810015004</v>
+        <v>810014027</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>MODULO LATERAL OURO PRETO</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>719066</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2245,25 +2245,25 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>720832</v>
-      </c>
-      <c r="B43" t="n">
-        <v>810015008</v>
+        <v>810003058</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>RACK AURUM</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>719068</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2288,25 +2288,25 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>717274</v>
-      </c>
-      <c r="B44" t="n">
-        <v>810015086</v>
+        <v>810012003</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>720854</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2331,25 +2331,25 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>719064</v>
-      </c>
-      <c r="B45" t="n">
-        <v>810012004</v>
+        <v>810014047</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
+          <t>PRATELEIRA CURVA 2.2</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>719091</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2374,25 +2374,25 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>719065</v>
-      </c>
-      <c r="B46" t="n">
-        <v>810002042</v>
+        <v>810014044</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>29/05/2025</t>
-        </is>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>719074</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2417,25 +2417,25 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>719066</v>
-      </c>
-      <c r="B47" t="n">
-        <v>810014027</v>
+        <v>810001027</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>29/05/2025</t>
-        </is>
+          <t>ESTANTE NEW BAHIA</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>719076</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2460,25 +2460,25 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>719068</v>
-      </c>
-      <c r="B48" t="n">
-        <v>810003058</v>
+        <v>810002036</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+          <t>HOME GUARARAPES</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>717269</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2503,25 +2503,25 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>719091</v>
-      </c>
-      <c r="B49" t="n">
-        <v>810014047</v>
+        <v>810006049</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+          <t>PAINEL HOME MARAGOGI</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>719080</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2546,25 +2546,25 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>719074</v>
-      </c>
-      <c r="B50" t="n">
-        <v>810014044</v>
+        <v>810002046</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>720465</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2589,25 +2589,25 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>719076</v>
-      </c>
-      <c r="B51" t="n">
-        <v>810001027</v>
+        <v>810002040</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>720466</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2632,25 +2632,25 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>717269</v>
-      </c>
-      <c r="B52" t="n">
-        <v>810002036</v>
+        <v>810006076</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>30/05/2025</t>
-        </is>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>720467</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2675,25 +2675,25 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>719080</v>
-      </c>
-      <c r="B53" t="n">
-        <v>810006049</v>
+        <v>810014046</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>PRATELEIRA CURVA 1.4</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>719082</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2718,25 +2718,25 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>719082</v>
-      </c>
-      <c r="B54" t="n">
-        <v>810014046</v>
+        <v>810003078</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>RACK ISTAMBUL</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>719085</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2761,25 +2761,25 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>720465</v>
-      </c>
-      <c r="B55" t="n">
-        <v>810002046</v>
+        <v>810001023</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>ESTANTE NEW LARA</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>719086</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2804,25 +2804,25 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>720466</v>
-      </c>
-      <c r="B56" t="n">
-        <v>810002040</v>
+        <v>810012001</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>720837</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2847,25 +2847,25 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>720467</v>
-      </c>
-      <c r="B57" t="n">
-        <v>810006076</v>
+        <v>810013015</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>719087</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2890,25 +2890,25 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>719085</v>
-      </c>
-      <c r="B58" t="n">
-        <v>810003078</v>
+        <v>810012016</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>720849</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2933,25 +2933,25 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>719086</v>
-      </c>
-      <c r="B59" t="n">
-        <v>810001023</v>
+        <v>810006054</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>03/06/2025</t>
-        </is>
+          <t>PAINEL HOME ARARUNA</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>719088</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2976,25 +2976,25 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>719087</v>
-      </c>
-      <c r="B60" t="n">
-        <v>810013015</v>
+        <v>810014048</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>03/06/2025</t>
-        </is>
+          <t>NICHO CURVO 1.4</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>719089</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3019,25 +3019,25 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>719088</v>
-      </c>
-      <c r="B61" t="n">
-        <v>810006054</v>
+        <v>810003088</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>03/06/2025</t>
-        </is>
+          <t>RACK SANTORINI</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>714585</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3062,25 +3062,25 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>719089</v>
-      </c>
-      <c r="B62" t="n">
-        <v>810014048</v>
+        <v>810002036</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>04/06/2025</t>
-        </is>
+          <t>HOME GUARARAPES</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>719067</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3105,25 +3105,25 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>714585</v>
-      </c>
-      <c r="B63" t="n">
-        <v>810003088</v>
+        <v>810005021</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>04/06/2025</t>
-        </is>
+          <t>APARADOR MONACO</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>714586</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3148,25 +3148,25 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>719067</v>
-      </c>
-      <c r="B64" t="n">
-        <v>810002036</v>
+        <v>810004014</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>04/06/2025</t>
-        </is>
+          <t>MESA DE CENTRO MONACO</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>714589</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3191,25 +3191,25 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>714586</v>
-      </c>
-      <c r="B65" t="n">
-        <v>810005021</v>
+        <v>810002049</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
+          <t>HOME NAPOLI</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>719090</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3234,25 +3234,25 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>714589</v>
-      </c>
-      <c r="B66" t="n">
-        <v>810004014</v>
+        <v>810014049</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
+          <t>NICHO CURVO 2.2</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>719070</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3277,25 +3277,25 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>719090</v>
-      </c>
-      <c r="B67" t="n">
-        <v>810002049</v>
+        <v>810002050</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>717275</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3320,25 +3320,25 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>719070</v>
-      </c>
-      <c r="B68" t="n">
-        <v>810014049</v>
+        <v>810014051</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
+          <t>BUFFET EVORA 1.6</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>720833</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3363,25 +3363,25 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>717275</v>
-      </c>
-      <c r="B69" t="n">
-        <v>810002050</v>
+        <v>810003060</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>05/06/2025</t>
-        </is>
+          <t>RACK ESMERALDA</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>720834</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3406,25 +3406,25 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>720833</v>
-      </c>
-      <c r="B70" t="n">
-        <v>810014051</v>
+        <v>810006099</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
+          <t>PAINEL HOME HAVANA</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>720835</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3449,25 +3449,25 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>720834</v>
-      </c>
-      <c r="B71" t="n">
-        <v>810003060</v>
+        <v>810005014</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>720836</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3492,25 +3492,25 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>720835</v>
-      </c>
-      <c r="B72" t="n">
-        <v>810006099</v>
+        <v>810006093</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>06/06/2025</t>
-        </is>
+          <t>PAINEL HOME LUGANO</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>720838</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3535,25 +3535,25 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>720836</v>
-      </c>
-      <c r="B73" t="n">
-        <v>810005014</v>
+        <v>810015073</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
+          <t>AEREO 1.2M ALLURE</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>720839</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3578,25 +3578,25 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>720837</v>
-      </c>
-      <c r="B74" t="n">
-        <v>810012001</v>
+        <v>810002042</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>720840</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3621,25 +3621,25 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>720838</v>
-      </c>
-      <c r="B75" t="n">
-        <v>810006093</v>
+        <v>810006097</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
+          <t>PAINEL GENOVA 2.0</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>720841</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3664,25 +3664,25 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>720839</v>
-      </c>
-      <c r="B76" t="n">
-        <v>810015073</v>
+        <v>810005012</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>720843</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3707,25 +3707,25 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>720840</v>
-      </c>
-      <c r="B77" t="n">
-        <v>810002042</v>
+        <v>810012019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>09/06/2025</t>
-        </is>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>720844</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3750,25 +3750,25 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>720841</v>
-      </c>
-      <c r="B78" t="n">
-        <v>810006097</v>
+        <v>810005020</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>APARADOR LISBOA</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>715952</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3793,25 +3793,25 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>720843</v>
-      </c>
-      <c r="B79" t="n">
-        <v>810005012</v>
+        <v>810004013</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>MESA DE CENTRO LISBOA</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>715953</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3836,25 +3836,25 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>720844</v>
-      </c>
-      <c r="B80" t="n">
-        <v>810012019</v>
+        <v>810014032</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>MODULO RIPADO 0.4</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>719069</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>715952</v>
-      </c>
-      <c r="B81" t="n">
-        <v>810005020</v>
+        <v>810006068</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>719071</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3922,25 +3922,25 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>715953</v>
-      </c>
-      <c r="B82" t="n">
-        <v>810004013</v>
+        <v>810006063</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>PAINEL HOME ALVORADA</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>720845</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3965,25 +3965,25 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>719069</v>
-      </c>
-      <c r="B83" t="n">
-        <v>810014032</v>
+        <v>810015062</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>720846</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4008,25 +4008,25 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>719071</v>
-      </c>
-      <c r="B84" t="n">
-        <v>810006068</v>
+        <v>810015063</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>AEREO 1.2M SELENE</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>720847</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4051,25 +4051,25 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>720845</v>
-      </c>
-      <c r="B85" t="n">
-        <v>810006063</v>
+        <v>810006059</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>10/06/2025</t>
-        </is>
+          <t>PAINEL EXTENSIVEL TULUM</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>720848</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4094,25 +4094,25 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>720846</v>
-      </c>
-      <c r="B86" t="n">
-        <v>810015062</v>
+        <v>810003089</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>RACK DUBAI 1.8</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>720850</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4137,25 +4137,25 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>720847</v>
-      </c>
-      <c r="B87" t="n">
-        <v>810015063</v>
+        <v>810003053</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>RACK COLORADO</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>720851</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4180,25 +4180,25 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>720848</v>
-      </c>
-      <c r="B88" t="n">
-        <v>810006059</v>
+        <v>810006092</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>PAINEL HOME FRIBURGO</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>720852</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4223,25 +4223,25 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>720849</v>
-      </c>
-      <c r="B89" t="n">
-        <v>810012016</v>
+        <v>810015059</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>AEREO DUPLO 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>720853</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4266,25 +4266,25 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>720850</v>
-      </c>
-      <c r="B90" t="n">
-        <v>810003089</v>
+        <v>810003065</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>RACK CRONOS 1.8</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>720855</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4309,25 +4309,25 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>720851</v>
-      </c>
-      <c r="B91" t="n">
-        <v>810003053</v>
+        <v>810002043</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>11/06/2025</t>
-        </is>
+          <t>HOME VIENA</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>720856</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4352,25 +4352,25 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>720852</v>
-      </c>
-      <c r="B92" t="n">
-        <v>810006092</v>
+        <v>810014031</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
+          <t>PRATELEIRA 2.2</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>720857</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4395,25 +4395,25 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>720853</v>
-      </c>
-      <c r="B93" t="n">
-        <v>810015059</v>
+        <v>810014012</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>720858</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4438,25 +4438,25 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>720854</v>
-      </c>
-      <c r="B94" t="n">
-        <v>810012003</v>
+        <v>810005011</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>BRANCO</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>720859</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4481,25 +4481,25 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>720855</v>
-      </c>
-      <c r="B95" t="n">
-        <v>810003065</v>
+        <v>810005021</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
+          <t>APARADOR MONACO</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>720860</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4524,25 +4524,25 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>720856</v>
-      </c>
-      <c r="B96" t="n">
-        <v>810002043</v>
+        <v>810004014</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
+          <t>MESA DE CENTRO MONACO</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>720861</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4560,221 +4560,6 @@
         </is>
       </c>
       <c r="I96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>720857</v>
-      </c>
-      <c r="B97" t="n">
-        <v>810014031</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>PRATELEIRA 2.2</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>720858</v>
-      </c>
-      <c r="B98" t="n">
-        <v>810014012</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>720859</v>
-      </c>
-      <c r="B99" t="n">
-        <v>810005011</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>23/06/2025</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>720860</v>
-      </c>
-      <c r="B100" t="n">
-        <v>810005021</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>720861</v>
-      </c>
-      <c r="B101" t="n">
-        <v>810004014</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
         <is>
           <t>Não Conferido</t>
         </is>

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Lote</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Produto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Lote</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>810006078</v>
+        <v>810006083</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,16 +491,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PAINEL HOME DUBLIN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>715943</v>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>712371</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EXPOSITOR SIMPLES 3.05M</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>810002049</v>
+        <v>810006084</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -534,16 +534,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HOME NAPOLI</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>715945</v>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>712372</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -562,31 +562,31 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>810006068</v>
+        <v>810002048</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>715946</v>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>714581</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HOME MUNIQUE</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -605,31 +605,31 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>810003053</v>
+        <v>810015074</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>RACK COLORADO</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>715947</v>
+          <t>22/05/2025</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>714583</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -648,31 +648,31 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>810003051</v>
+        <v>810006095</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>RACK SAO FRANCISCO</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>715948</v>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>715951</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PAINEL HOME ZURIQUE</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -691,31 +691,31 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>810015092</v>
+        <v>810003060</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>719933</v>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>717256</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RACK ESMERALDA</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -734,31 +734,31 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>810002042</v>
+        <v>810003055</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>715949</v>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>717257</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RACK OURO PRETO</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -777,31 +777,31 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>810012013</v>
+        <v>810006068</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>717258</v>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>717259</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -820,31 +820,31 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>810003063</v>
+        <v>810012015</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>RACK CRONOS 2.2</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>715950</v>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>717267</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -863,31 +863,31 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>810006083</v>
+        <v>810014032</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>EXPOSITOR SIMPLES 3.05M</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>712371</v>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>717260</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MODULO RIPADO 0.4</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -906,31 +906,31 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>810006084</v>
+        <v>810003058</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>712372</v>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>717261</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RACK AURUM</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -949,31 +949,31 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>810002048</v>
+        <v>810015068</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>HOME MUNIQUE</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>714581</v>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>717262</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BALCAO 0.8M ALLURE</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -992,31 +992,31 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>810015074</v>
+        <v>810003056</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>714583</v>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>717263</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RACK RUBI</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1035,31 +1035,31 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>810006095</v>
+        <v>810002042</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PAINEL HOME ZURIQUE</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>715951</v>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>717265</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1078,31 +1078,31 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>810003060</v>
+        <v>810002041</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>RACK ESMERALDA</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>717256</v>
+          <t>26/05/2025</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>717266</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HOME ATLANTA</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1121,31 +1121,31 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>810003055</v>
+        <v>810014029</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>RACK OURO PRETO</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>717257</v>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>717268</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NICHO 2.2</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1164,31 +1164,31 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>810006068</v>
+        <v>810015074</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>717259</v>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>717264</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1207,31 +1207,31 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>810012015</v>
+        <v>810015073</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>717267</v>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>717271</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AEREO 1.2M ALLURE</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1250,31 +1250,31 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>810014032</v>
+        <v>810006099</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MODULO RIPADO 0.4</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>717260</v>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>717272</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PAINEL HOME HAVANA</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1293,31 +1293,31 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>810003058</v>
+        <v>810014031</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>RACK AURUM</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>717261</v>
+          <t>27/05/2025</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>717273</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PRATELEIRA 2.2</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1336,31 +1336,31 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>810015068</v>
+        <v>810015067</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>BALCAO 0.8M ALLURE</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>717262</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>719058</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1379,31 +1379,31 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>810003056</v>
+        <v>810015066</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>RACK RUBI</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>717263</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>719059</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BALCAO 1.2M ALLURE</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1422,31 +1422,31 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>810002042</v>
+        <v>810013012</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>717265</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>719060</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MESA DE CABECEIRA BUZIOS</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1465,31 +1465,31 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>810002041</v>
+        <v>810003089</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>HOME ATLANTA</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>717266</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>719061</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RACK DUBAI 1.8</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1508,31 +1508,31 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>810014029</v>
+        <v>810015060</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NICHO 2.2</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>717268</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>719062</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1551,31 +1551,31 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>810015074</v>
+        <v>810015065</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>717264</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>719063</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BALCAO 0.8M SELENE</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1594,31 +1594,31 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>810015073</v>
+        <v>810015004</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AEREO 1.2M ALLURE</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>717271</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>720831</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1637,31 +1637,31 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>810006099</v>
+        <v>810015008</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PAINEL HOME HAVANA</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>717272</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>720832</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1680,31 +1680,31 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>810014031</v>
+        <v>810015086</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PRATELEIRA 2.2</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>717273</v>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>717274</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.65M SELENE</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1723,17 +1723,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>810015067</v>
+        <v>810012004</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1741,13 +1741,13 @@
           <t>28/05/2025</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>719058</v>
+      <c r="D31" t="n">
+        <v>719064</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1766,31 +1766,31 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>810015066</v>
+        <v>810002042</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>BALCAO 1.2M ALLURE</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>719059</v>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>719065</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1809,31 +1809,31 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>810013012</v>
+        <v>810014027</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>719060</v>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>719066</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MODULO LATERAL OURO PRETO</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1852,13 +1852,13 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>810003089</v>
+        <v>810003058</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>RACK DUBAI 1.8</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>719061</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>719068</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RACK AURUM</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1895,31 +1895,31 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>810015060</v>
+        <v>810012003</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>719062</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>720854</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1938,31 +1938,31 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>810015065</v>
+        <v>810014047</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>BALCAO 0.8M SELENE</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>719063</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>719091</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PRATELEIRA CURVA 2.2</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1981,31 +1981,31 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>810015004</v>
+        <v>810014044</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>720831</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>719074</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2024,31 +2024,31 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>810015008</v>
+        <v>810001027</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>720832</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>719076</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ESTANTE NEW BAHIA</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2067,31 +2067,31 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>810015086</v>
+        <v>810002036</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>717274</v>
+          <t>30/05/2025</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>717269</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>HOME GUARARAPES</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2110,31 +2110,31 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>810012004</v>
+        <v>810006049</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>719064</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>719080</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PAINEL HOME MARAGOGI</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2153,31 +2153,31 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>810002042</v>
+        <v>810002046</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>719065</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>720465</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2196,31 +2196,31 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>810014027</v>
+        <v>810002040</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>MODULO LATERAL OURO PRETO</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>719066</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>720466</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2239,31 +2239,31 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>810003058</v>
+        <v>810006076</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>RACK AURUM</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>719068</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>720467</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2282,31 +2282,31 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>810012003</v>
+        <v>810014046</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>720854</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>719082</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PRATELEIRA CURVA 1.4</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2325,31 +2325,31 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>810014047</v>
+        <v>810003078</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 2.2</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>719091</v>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>719085</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RACK ISTAMBUL</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2368,31 +2368,31 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>810014044</v>
+        <v>810001023</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>719074</v>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>719086</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ESTANTE NEW LARA</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2411,31 +2411,31 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>810001027</v>
+        <v>810012001</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>ESTANTE NEW BAHIA</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>719076</v>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>720837</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2454,31 +2454,31 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>810002036</v>
+        <v>810013015</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>HOME GUARARAPES</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>717269</v>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>719087</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2497,31 +2497,31 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>810006049</v>
+        <v>810012016</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>PAINEL HOME MARAGOGI</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>719080</v>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>720849</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2540,31 +2540,31 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>810002046</v>
+        <v>810006054</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>720465</v>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>719088</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>PAINEL HOME ARARUNA</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2583,31 +2583,31 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>810002040</v>
+        <v>810014048</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>720466</v>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>719089</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NICHO CURVO 1.4</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2626,31 +2626,31 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>810006076</v>
+        <v>810003088</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>720467</v>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>714585</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RACK SANTORINI</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>810014046</v>
+        <v>810002036</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>PRATELEIRA CURVA 1.4</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>719082</v>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>719067</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>HOME GUARARAPES</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2712,31 +2712,31 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>810003078</v>
+        <v>810005021</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>RACK ISTAMBUL</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>719085</v>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>714586</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>APARADOR MONACO</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2755,31 +2755,31 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>810001023</v>
+        <v>810004014</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ESTANTE NEW LARA</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>719086</v>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>714589</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MESA DE CENTRO MONACO</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2798,31 +2798,31 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>810012001</v>
+        <v>810002049</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>720837</v>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>719090</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>HOME NAPOLI</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2841,31 +2841,31 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>810013015</v>
+        <v>810014049</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>719087</v>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>719070</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NICHO CURVO 2.2</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2884,31 +2884,31 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>810012016</v>
+        <v>810002050</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>720849</v>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>717275</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2927,13 +2927,13 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>810006054</v>
+        <v>810014051</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PAINEL HOME ARARUNA</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>719088</v>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>720833</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BUFFET EVORA 1.6</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2970,13 +2970,13 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>810014048</v>
+        <v>810003060</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2985,16 +2985,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>NICHO CURVO 1.4</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>719089</v>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>720834</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RACK ESMERALDA</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3013,31 +3013,31 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>810003088</v>
+        <v>810006099</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>RACK SANTORINI</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>714585</v>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>720835</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PAINEL HOME HAVANA</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3056,31 +3056,31 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>810002036</v>
+        <v>810005014</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>HOME GUARARAPES</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>719067</v>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>720836</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3099,13 +3099,13 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>810005021</v>
+        <v>810006093</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3114,16 +3114,16 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>714586</v>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>720838</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>PAINEL HOME LUGANO</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3142,13 +3142,13 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>810004014</v>
+        <v>810015073</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3157,16 +3157,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>714589</v>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>720839</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AEREO 1.2M ALLURE</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3185,31 +3185,31 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>810002049</v>
+        <v>810002042</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>HOME NAPOLI</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>719090</v>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>720840</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>HOME ELDORADO 2.0</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3228,31 +3228,31 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>810014049</v>
+        <v>810006097</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>NICHO CURVO 2.2</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>719070</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>720841</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>PAINEL GENOVA 2.0</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3271,31 +3271,31 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>810002050</v>
+        <v>810005012</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>717275</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>720843</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3314,31 +3314,31 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>810014051</v>
+        <v>810012019</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>BUFFET EVORA 1.6</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>720833</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>720844</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3357,31 +3357,31 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>810003060</v>
+        <v>810005020</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>RACK ESMERALDA</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>720834</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>715952</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>APARADOR LISBOA</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3400,31 +3400,31 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>810006099</v>
+        <v>810004013</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PAINEL HOME HAVANA</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>720835</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>715953</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MESA DE CENTRO LISBOA</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3443,31 +3443,31 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>810005014</v>
+        <v>810014032</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>720836</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>719069</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MODULO RIPADO 0.4</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3486,13 +3486,13 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>810006093</v>
+        <v>810006068</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3501,16 +3501,16 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PAINEL HOME LUGANO</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>720838</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>719071</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3529,13 +3529,13 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>810015073</v>
+        <v>810006063</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3544,16 +3544,16 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>AEREO 1.2M ALLURE</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>720839</v>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>720845</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PAINEL HOME ALVORADA</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3572,13 +3572,13 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>810002042</v>
+        <v>810015062</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3587,16 +3587,16 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>HOME ELDORADO 2.0</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>720840</v>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>720846</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3615,13 +3615,13 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>810006097</v>
+        <v>810015063</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3630,16 +3630,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PAINEL GENOVA 2.0</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>720841</v>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>720847</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AEREO 1.2M SELENE</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3658,13 +3658,13 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>810005012</v>
+        <v>810006059</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3673,16 +3673,16 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>720843</v>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>720848</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>PAINEL EXTENSIVEL TULUM</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3701,31 +3701,31 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>810012019</v>
+        <v>810003089</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>720844</v>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>720850</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>RACK DUBAI 1.8</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3744,31 +3744,31 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>810005020</v>
+        <v>810003053</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>APARADOR LISBOA</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>715952</v>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>720851</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>RACK COLORADO</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3787,31 +3787,31 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>810004013</v>
+        <v>810006092</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO LISBOA</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>715953</v>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>720852</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PAINEL HOME FRIBURGO</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3830,31 +3830,31 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>810014032</v>
+        <v>810015059</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>MODULO RIPADO 0.4</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>719069</v>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>720853</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>AEREO DUPLO 0.8M SELENE</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3873,31 +3873,31 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>810006068</v>
+        <v>810003065</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>719071</v>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>720855</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>RACK CRONOS 1.8</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3916,31 +3916,31 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>810006063</v>
+        <v>810002043</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PAINEL HOME ALVORADA</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>720845</v>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>720856</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HOME VIENA</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3959,31 +3959,31 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>810015062</v>
+        <v>810014031</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>720846</v>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>720857</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PRATELEIRA 2.2</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4002,31 +4002,31 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>810015063</v>
+        <v>810014012</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>AEREO 1.2M SELENE</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>720847</v>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>720858</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4045,31 +4045,31 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>810006059</v>
+        <v>810005011</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>720848</v>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>720859</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4088,31 +4088,31 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>810003089</v>
+        <v>810005021</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>RACK DUBAI 1.8</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>720850</v>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>720860</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>APARADOR MONACO</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4131,31 +4131,31 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>810003053</v>
+        <v>810004014</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>RACK COLORADO</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>720851</v>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>720861</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MESA DE CENTRO MONACO</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4174,394 +4174,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>810006092</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PAINEL HOME FRIBURGO</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>720852</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>810015059</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>720853</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>810003065</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>RACK CRONOS 1.8</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>720855</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>810002043</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>HOME VIENA</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>720856</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>810014031</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>PRATELEIRA 2.2</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>720857</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>810014012</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>720858</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>810005011</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>23/06/2025</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>720859</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>810005021</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>720860</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>810004014</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>720861</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Não Conferido</t>
+          <t>N/C</t>
         </is>
       </c>
     </row>

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -504,17 +504,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -633,17 +633,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -719,17 +719,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -762,17 +762,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -805,17 +805,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -977,17 +977,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1149,17 +1149,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1192,17 +1192,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1235,17 +1235,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1364,17 +1364,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1450,17 +1450,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1536,17 +1536,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1622,17 +1622,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1708,17 +1708,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1751,17 +1751,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1837,17 +1837,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1880,17 +1880,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1923,17 +1923,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2052,17 +2052,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2095,17 +2095,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2138,17 +2138,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2181,17 +2181,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2224,17 +2224,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2267,17 +2267,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2310,17 +2310,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2353,17 +2353,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2439,17 +2439,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2482,17 +2482,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2525,17 +2525,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2568,17 +2568,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2611,17 +2611,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2654,17 +2654,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2697,17 +2697,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2740,17 +2740,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2783,17 +2783,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2826,17 +2826,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2869,17 +2869,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2912,17 +2912,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2955,17 +2955,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3084,17 +3084,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3127,17 +3127,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3213,17 +3213,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3256,17 +3256,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3299,17 +3299,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3342,17 +3342,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3385,17 +3385,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3428,17 +3428,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3514,17 +3514,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3557,17 +3557,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3600,17 +3600,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3729,17 +3729,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3772,17 +3772,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3815,17 +3815,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3858,17 +3858,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3901,17 +3901,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3987,17 +3987,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4030,17 +4030,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4159,17 +4159,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Não Conferido</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>810006083</v>
+        <v>810006095</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>712371</v>
+        <v>715951</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EXPOSITOR SIMPLES 3.05M</t>
+          <t>PAINEL HOME ZURIQUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,24 +525,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>810006084</v>
+        <v>810003060</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>712372</v>
+        <v>717256</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MODULO EXPOSITOR SIMPLES 0.6M</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,24 +568,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>810002048</v>
+        <v>810003055</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>714581</v>
+        <v>717257</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>RACK OURO PRETO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,24 +611,24 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>810015074</v>
+        <v>810006068</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>23/05/2025</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>714583</v>
+        <v>717259</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -654,24 +654,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>810006095</v>
+        <v>810012015</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>715951</v>
+        <v>717267</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -697,24 +697,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>810003060</v>
+        <v>810014032</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>717256</v>
+        <v>717260</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,24 +740,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>810003055</v>
+        <v>810003058</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>717257</v>
+        <v>717261</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RACK OURO PRETO</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,24 +783,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>810006068</v>
+        <v>810015068</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>24/05/2025</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>717259</v>
+        <v>717262</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>BALCAO 0.8M ALLURE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -826,24 +826,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>810012015</v>
+        <v>810003056</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>717267</v>
+        <v>717263</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -869,24 +869,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>810014032</v>
+        <v>810002042</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>717260</v>
+        <v>717265</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -912,24 +912,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>810003058</v>
+        <v>810002041</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>717261</v>
+        <v>717266</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -955,24 +955,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>810015068</v>
+        <v>810014029</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>717262</v>
+        <v>717268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>NICHO 2.2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -998,24 +998,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>810003056</v>
+        <v>810015074</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>717263</v>
+        <v>717264</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1041,24 +1041,24 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>810002042</v>
+        <v>810015073</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>717265</v>
+        <v>717271</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1084,24 +1084,24 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>810002041</v>
+        <v>810006099</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>717266</v>
+        <v>717272</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1127,11 +1127,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>810014029</v>
+        <v>810014031</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1140,11 +1140,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>717268</v>
+        <v>717273</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NICHO 2.2</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1170,24 +1170,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>810015074</v>
+        <v>810015067</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>717264</v>
+        <v>719058</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1213,7 +1213,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>810015073</v>
+        <v>810015066</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>717271</v>
+        <v>719059</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1256,7 +1256,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>810006099</v>
+        <v>810013012</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1265,15 +1265,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>717272</v>
+        <v>719060</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1299,7 +1299,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>810014031</v>
+        <v>810003089</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1308,15 +1308,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>717273</v>
+        <v>719061</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1342,7 +1342,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>810015067</v>
+        <v>810015060</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>719058</v>
+        <v>719062</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1385,7 +1385,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>810015066</v>
+        <v>810015065</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>719059</v>
+        <v>719063</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1428,7 +1428,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>810013012</v>
+        <v>810015004</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1441,11 +1441,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>719060</v>
+        <v>720831</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1471,7 +1471,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>810003089</v>
+        <v>810015008</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1484,11 +1484,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>719061</v>
+        <v>720832</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1514,7 +1514,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>810015060</v>
+        <v>810015086</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>719062</v>
+        <v>717274</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1557,11 +1557,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>810015065</v>
+        <v>810012004</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1570,11 +1570,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>719063</v>
+        <v>719064</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1600,24 +1600,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>810015004</v>
+        <v>810002042</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>720831</v>
+        <v>719065</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1643,24 +1643,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>810015008</v>
+        <v>810014027</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>720832</v>
+        <v>719066</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+          <t>MODULO LATERAL OURO PRETO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1686,24 +1686,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>810015086</v>
+        <v>810003058</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>717274</v>
+        <v>719068</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1729,7 +1729,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>810012004</v>
+        <v>810012003</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1738,15 +1738,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>719064</v>
+        <v>720854</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1772,24 +1772,24 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>810002042</v>
+        <v>810014047</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>719065</v>
+        <v>719091</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1815,24 +1815,24 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>810014027</v>
+        <v>810014044</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>719066</v>
+        <v>719074</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1858,11 +1858,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>810003058</v>
+        <v>810001027</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1871,11 +1871,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>719068</v>
+        <v>719076</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>ESTANTE NEW BAHIA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1901,11 +1901,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>810012003</v>
+        <v>810002036</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1914,11 +1914,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>720854</v>
+        <v>717269</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1944,24 +1944,24 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>810014047</v>
+        <v>810006049</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>719091</v>
+        <v>719080</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1987,24 +1987,24 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>810014044</v>
+        <v>810002046</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>719074</v>
+        <v>720465</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2030,24 +2030,24 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>810001027</v>
+        <v>810002040</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>719076</v>
+        <v>720466</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2073,24 +2073,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>810002036</v>
+        <v>810006076</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>717269</v>
+        <v>720467</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2116,11 +2116,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>810006049</v>
+        <v>810014046</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2129,11 +2129,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>719080</v>
+        <v>719082</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2159,11 +2159,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>810002046</v>
+        <v>810003078</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2172,11 +2172,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>720465</v>
+        <v>719085</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2202,24 +2202,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>810002040</v>
+        <v>810001023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>720466</v>
+        <v>719086</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>810006076</v>
+        <v>810012001</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2254,15 +2254,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>720467</v>
+        <v>720837</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2288,24 +2288,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>810014046</v>
+        <v>810013015</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>719082</v>
+        <v>719087</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2331,24 +2331,24 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>810003078</v>
+        <v>810012016</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>719085</v>
+        <v>720849</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2374,11 +2374,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>810001023</v>
+        <v>810006054</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2387,11 +2387,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>719086</v>
+        <v>719088</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2417,24 +2417,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>810012001</v>
+        <v>810014048</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>720837</v>
+        <v>719089</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2460,7 +2460,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>810013015</v>
+        <v>810003088</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2469,15 +2469,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>719087</v>
+        <v>714585</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2503,24 +2503,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>810012016</v>
+        <v>810002036</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>720849</v>
+        <v>719067</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2546,7 +2546,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>810006054</v>
+        <v>810005021</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2555,15 +2555,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>719088</v>
+        <v>714586</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2589,7 +2589,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>810014048</v>
+        <v>810004014</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2598,15 +2598,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>719089</v>
+        <v>714589</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>810003088</v>
+        <v>810002049</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2641,15 +2641,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>714585</v>
+        <v>719090</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2675,7 +2675,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>810002036</v>
+        <v>810014049</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2684,15 +2684,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>719067</v>
+        <v>719070</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2718,11 +2718,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>810005021</v>
+        <v>810002050</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2731,11 +2731,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>714586</v>
+        <v>717275</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2761,24 +2761,24 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>810004014</v>
+        <v>810014051</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>714589</v>
+        <v>720833</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2804,24 +2804,24 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>810002049</v>
+        <v>810003060</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>719090</v>
+        <v>720834</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2847,7 +2847,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>810014049</v>
+        <v>810006099</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2856,15 +2856,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>719070</v>
+        <v>720835</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2890,7 +2890,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>810002050</v>
+        <v>810005014</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2899,15 +2899,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>717275</v>
+        <v>720836</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2933,7 +2933,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>810014051</v>
+        <v>810006093</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2942,15 +2942,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>720833</v>
+        <v>720838</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2976,7 +2976,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>810003060</v>
+        <v>810015073</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2985,15 +2985,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>720834</v>
+        <v>720839</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3019,7 +3019,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>810006099</v>
+        <v>810002042</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3028,15 +3028,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>720835</v>
+        <v>720840</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3062,7 +3062,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>810005014</v>
+        <v>810006097</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3071,15 +3071,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>720836</v>
+        <v>720841</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3105,7 +3105,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>810006093</v>
+        <v>810005012</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3114,15 +3114,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>720838</v>
+        <v>720843</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3148,24 +3148,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>810015073</v>
+        <v>810012019</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>720839</v>
+        <v>720844</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3191,24 +3191,24 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>810002042</v>
+        <v>810005020</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>720840</v>
+        <v>715952</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3234,11 +3234,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>810006097</v>
+        <v>810004013</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3247,11 +3247,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>720841</v>
+        <v>715953</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3277,11 +3277,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>810005012</v>
+        <v>810006063</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3290,11 +3290,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>720843</v>
+        <v>720845</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3320,11 +3320,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>810012019</v>
+        <v>810015062</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3333,11 +3333,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>720844</v>
+        <v>720846</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3363,11 +3363,11 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>810005020</v>
+        <v>810015063</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3376,11 +3376,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>715952</v>
+        <v>720847</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3406,24 +3406,24 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>810004013</v>
+        <v>810006059</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>715953</v>
+        <v>720848</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3449,24 +3449,24 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>810014032</v>
+        <v>810003089</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>719069</v>
+        <v>720850</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3492,24 +3492,24 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>810006068</v>
+        <v>810003053</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>719071</v>
+        <v>720851</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3535,24 +3535,24 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>810006063</v>
+        <v>810006092</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>720845</v>
+        <v>720852</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3578,24 +3578,24 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>810015062</v>
+        <v>810015059</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>720846</v>
+        <v>720853</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3621,24 +3621,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>810015063</v>
+        <v>810003065</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>720847</v>
+        <v>720855</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3664,24 +3664,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>810006059</v>
+        <v>810002043</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>720848</v>
+        <v>720856</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3707,24 +3707,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>810003089</v>
+        <v>810014031</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>720850</v>
+        <v>720857</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3750,24 +3750,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>810003053</v>
+        <v>810014012</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>720851</v>
+        <v>720858</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3793,11 +3793,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>810006092</v>
+        <v>810014032</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3806,11 +3806,11 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>720852</v>
+        <v>719069</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>810015059</v>
+        <v>810006068</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3845,15 +3845,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>720853</v>
+        <v>719071</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3879,7 +3879,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>810003065</v>
+        <v>810005011</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3888,15 +3888,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>720855</v>
+        <v>720859</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3922,7 +3922,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>810002043</v>
+        <v>810005021</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3931,15 +3931,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>720856</v>
+        <v>720860</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3965,7 +3965,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>810014031</v>
+        <v>810004014</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3974,15 +3974,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>720857</v>
+        <v>720861</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4001,178 +4001,6 @@
         </is>
       </c>
       <c r="I83" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>810014012</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>VERDE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>720858</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>810005011</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>23/06/2025</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>720859</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>810005021</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>720860</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>810004014</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>720861</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,24 +482,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>810006095</v>
+        <v>810003056</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>715951</v>
+        <v>717263</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PAINEL HOME ZURIQUE</t>
+          <t>RACK RUBI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,7 +525,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>810003060</v>
+        <v>810002042</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -534,15 +534,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>717256</v>
+        <v>717265</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,7 +568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>810003055</v>
+        <v>810002041</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -577,15 +577,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>26/05/2025</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>717257</v>
+        <v>717266</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RACK OURO PRETO</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,7 +611,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>810006068</v>
+        <v>810014029</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -620,15 +620,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>717259</v>
+        <v>717268</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>NICHO 2.2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -654,24 +654,24 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>810012015</v>
+        <v>810015074</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>717267</v>
+        <v>717264</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (2000MM)</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -697,24 +697,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>810014032</v>
+        <v>810015073</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>717260</v>
+        <v>717271</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,24 +740,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>810003058</v>
+        <v>810006099</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>717261</v>
+        <v>717272</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,24 +783,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>810015068</v>
+        <v>810014031</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>717262</v>
+        <v>717273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M ALLURE</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -826,24 +826,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>810003056</v>
+        <v>810015067</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>717263</v>
+        <v>719058</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -869,24 +869,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>810002042</v>
+        <v>810015066</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>717265</v>
+        <v>719059</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -912,24 +912,24 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>810002041</v>
+        <v>810013012</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>717266</v>
+        <v>719060</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -955,24 +955,24 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>810014029</v>
+        <v>810003089</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>717268</v>
+        <v>719061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NICHO 2.2</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -998,24 +998,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>810015074</v>
+        <v>810015060</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>717264</v>
+        <v>719062</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>810015073</v>
+        <v>810015065</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>717271</v>
+        <v>719063</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1084,7 +1084,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>810006099</v>
+        <v>810015004</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1093,15 +1093,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>717272</v>
+        <v>720831</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1127,7 +1127,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>810014031</v>
+        <v>810015008</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1136,15 +1136,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>717273</v>
+        <v>720832</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1170,7 +1170,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>810015067</v>
+        <v>810015086</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1183,11 +1183,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>719058</v>
+        <v>717274</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1213,11 +1213,11 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>810015066</v>
+        <v>810012004</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1226,11 +1226,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>719059</v>
+        <v>719064</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1256,24 +1256,24 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>810013012</v>
+        <v>810002042</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>719060</v>
+        <v>719065</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1299,24 +1299,24 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>810003089</v>
+        <v>810014027</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>719061</v>
+        <v>719066</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>MODULO LATERAL OURO PRETO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1342,24 +1342,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>810015060</v>
+        <v>810003058</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>719062</v>
+        <v>719068</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1385,24 +1385,24 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>810015065</v>
+        <v>810012003</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>719063</v>
+        <v>720854</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1428,24 +1428,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>810015004</v>
+        <v>810014044</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>720831</v>
+        <v>719074</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1471,24 +1471,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>810015008</v>
+        <v>810001027</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>720832</v>
+        <v>719076</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+          <t>ESTANTE NEW BAHIA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1514,24 +1514,24 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>810015086</v>
+        <v>810002036</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>717274</v>
+        <v>717269</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1557,24 +1557,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>810012004</v>
+        <v>810006049</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>719064</v>
+        <v>719080</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1600,24 +1600,24 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>810002042</v>
+        <v>810002046</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>719065</v>
+        <v>720465</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1643,24 +1643,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>810014027</v>
+        <v>810002040</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>719066</v>
+        <v>720466</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1686,24 +1686,24 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>810003058</v>
+        <v>810006076</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>719068</v>
+        <v>720467</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1729,24 +1729,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>810012003</v>
+        <v>810003078</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>720854</v>
+        <v>719085</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1772,24 +1772,24 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>810014047</v>
+        <v>810001023</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>719091</v>
+        <v>719086</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1815,24 +1815,24 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>810014044</v>
+        <v>810012001</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>719074</v>
+        <v>720837</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1858,24 +1858,24 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>810001027</v>
+        <v>810013015</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>719076</v>
+        <v>719087</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1901,24 +1901,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>810002036</v>
+        <v>810012016</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>717269</v>
+        <v>720849</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1944,24 +1944,24 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>810006049</v>
+        <v>810006054</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>719080</v>
+        <v>719088</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1987,24 +1987,24 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>810002046</v>
+        <v>810014048</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>720465</v>
+        <v>719089</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2030,24 +2030,24 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>810002040</v>
+        <v>810003088</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>720466</v>
+        <v>714585</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2073,24 +2073,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>810006076</v>
+        <v>810002036</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>720467</v>
+        <v>719067</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2116,7 +2116,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>810014046</v>
+        <v>810005021</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2125,15 +2125,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>719082</v>
+        <v>714586</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2159,7 +2159,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>810003078</v>
+        <v>810004014</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2168,15 +2168,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>719085</v>
+        <v>714589</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2202,24 +2202,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>810001023</v>
+        <v>810002049</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>719086</v>
+        <v>719090</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2245,24 +2245,24 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>810012001</v>
+        <v>810014049</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>720837</v>
+        <v>719070</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2288,24 +2288,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>810013015</v>
+        <v>810014051</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>719087</v>
+        <v>720833</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2331,24 +2331,24 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>810012016</v>
+        <v>810003060</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>720849</v>
+        <v>720834</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2374,24 +2374,24 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>810006054</v>
+        <v>810006099</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>719088</v>
+        <v>720835</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2417,24 +2417,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>810014048</v>
+        <v>810005014</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>719089</v>
+        <v>720836</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2460,24 +2460,24 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>810003088</v>
+        <v>810006093</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>714585</v>
+        <v>720838</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2503,24 +2503,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>810002036</v>
+        <v>810015073</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>719067</v>
+        <v>720839</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2546,24 +2546,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>810005021</v>
+        <v>810002042</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>714586</v>
+        <v>720840</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2589,24 +2589,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>810004014</v>
+        <v>810006097</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>714589</v>
+        <v>720841</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2632,24 +2632,24 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>810002049</v>
+        <v>810005012</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>719090</v>
+        <v>720843</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2675,24 +2675,24 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>810014049</v>
+        <v>810012019</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>719070</v>
+        <v>720844</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2718,24 +2718,24 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>810002050</v>
+        <v>810005020</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>717275</v>
+        <v>715952</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2761,24 +2761,24 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>810014051</v>
+        <v>810004013</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>720833</v>
+        <v>715953</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2804,24 +2804,24 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>810003060</v>
+        <v>810002050</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>720834</v>
+        <v>717275</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2847,24 +2847,24 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>810006099</v>
+        <v>810006063</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>720835</v>
+        <v>720845</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2890,24 +2890,24 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>810005014</v>
+        <v>810015062</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>720836</v>
+        <v>720846</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2933,24 +2933,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>810006093</v>
+        <v>810015063</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>720838</v>
+        <v>720847</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2976,24 +2976,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>810015073</v>
+        <v>810006059</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>720839</v>
+        <v>720848</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3019,24 +3019,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>810002042</v>
+        <v>810003089</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>720840</v>
+        <v>720850</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3062,24 +3062,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>810006097</v>
+        <v>810003053</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>720841</v>
+        <v>720851</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3105,24 +3105,24 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>810005012</v>
+        <v>810006092</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>720843</v>
+        <v>720852</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3148,24 +3148,24 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>810012019</v>
+        <v>810015059</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>720844</v>
+        <v>720853</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3191,24 +3191,24 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>810005020</v>
+        <v>810003065</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>715952</v>
+        <v>720855</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3234,24 +3234,24 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>810004013</v>
+        <v>810002043</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>715953</v>
+        <v>720856</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3277,24 +3277,24 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>810006063</v>
+        <v>810014031</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>720845</v>
+        <v>720857</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3320,24 +3320,24 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>810015062</v>
+        <v>810014012</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>720846</v>
+        <v>720858</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3363,24 +3363,24 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>810015063</v>
+        <v>810014032</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>720847</v>
+        <v>719069</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3406,7 +3406,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>810006059</v>
+        <v>810006068</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3415,15 +3415,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>720848</v>
+        <v>719071</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3449,24 +3449,24 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>810003089</v>
+        <v>810014047</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>720850</v>
+        <v>719091</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3492,24 +3492,24 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>810003053</v>
+        <v>810014046</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>720851</v>
+        <v>719082</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3535,24 +3535,24 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>810006092</v>
+        <v>810015058</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>720852</v>
+        <v>723251</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3578,24 +3578,24 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>810015059</v>
+        <v>810015061</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>720853</v>
+        <v>723252</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3621,24 +3621,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>810003065</v>
+        <v>810015062</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>720855</v>
+        <v>723254</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3664,24 +3664,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>810002043</v>
+        <v>810003060</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>720856</v>
+        <v>723255</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3707,24 +3707,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>810014031</v>
+        <v>810012013</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>720857</v>
+        <v>723256</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3750,24 +3750,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>810014012</v>
+        <v>810015065</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>720858</v>
+        <v>723257</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3793,7 +3793,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>810014032</v>
+        <v>810002042</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3802,15 +3802,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>719069</v>
+        <v>723258</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3836,24 +3836,24 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>810006068</v>
+        <v>810002041</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>719071</v>
+        <v>723259</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3879,24 +3879,24 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>810005011</v>
+        <v>810006068</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>720859</v>
+        <v>723260</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3922,24 +3922,24 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>810005021</v>
+        <v>810014032</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>720860</v>
+        <v>723261</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3965,42 +3965,515 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
+        <v>810002033</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>723262</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>HOME ALAGOAS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>810012016</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BRANCO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>723263</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>810003090</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>AMARELO</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>723264</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>RACK DUBAI 1.6</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>810013011</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>723265</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>CABECEIRA ILHABELA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>810006054</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18/06/2025</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>723266</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PAINEL HOME ARARUNA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>810005011</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>720859</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>810002048</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>723189</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>HOME MUNIQUE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>810015092</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>723269</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>810002043</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>23/06/2025</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>723270</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>HOME VIENA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>810015074</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>723271</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>810005021</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>07/07/2025</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>720860</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>APARADOR MONACO</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>N/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
         <v>810004014</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>AMARELO</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>07/07/2025</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D94" t="n">
         <v>720861</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>

--- a/Isopor/Outros/Mapa_Transformado.xlsx
+++ b/Isopor/Outros/Mapa_Transformado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>810003056</v>
+        <v>810014029</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -491,15 +491,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>717263</v>
+        <v>717268</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RACK RUBI</t>
+          <t>NICHO 2.2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,24 +525,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>810002042</v>
+        <v>810015074</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>717265</v>
+        <v>717264</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -568,7 +568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>810002041</v>
+        <v>810015073</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -577,15 +577,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>27/05/2025</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>717266</v>
+        <v>717271</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,7 +611,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>810014029</v>
+        <v>810006099</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>717268</v>
+        <v>717272</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NICHO 2.2</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -654,7 +654,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>810015074</v>
+        <v>810014031</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -667,11 +667,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>717264</v>
+        <v>717273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -697,24 +697,24 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>810015073</v>
+        <v>810015067</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>717271</v>
+        <v>719058</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -740,24 +740,24 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>810006099</v>
+        <v>810015066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>717272</v>
+        <v>719059</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>BALCAO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,24 +783,24 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>810014031</v>
+        <v>810013012</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>717273</v>
+        <v>719060</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>MESA DE CABECEIRA BUZIOS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -826,11 +826,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>810015067</v>
+        <v>810003089</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,11 +839,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>719058</v>
+        <v>719061</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M ALLURE/ATENA</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -869,11 +869,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>810015066</v>
+        <v>810015060</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,11 +882,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>719059</v>
+        <v>719062</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M ALLURE</t>
+          <t>AEREO SIMPLES 0.8M SELENE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -912,11 +912,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>810013012</v>
+        <v>810015065</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -925,11 +925,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>719060</v>
+        <v>719063</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MESA DE CABECEIRA BUZIOS</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -955,11 +955,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>810003089</v>
+        <v>810015004</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -968,11 +968,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>719061</v>
+        <v>720831</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>TAMPO BALCAO 0.7M MODELO 001</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -998,11 +998,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>810015060</v>
+        <v>810015008</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>719062</v>
+        <v>720832</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AEREO SIMPLES 0.8M SELENE</t>
+          <t>TAMPO BALCAO 0.8M MODELO 001</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1041,11 +1041,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>810015065</v>
+        <v>810015086</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1054,11 +1054,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>719063</v>
+        <v>717274</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>CRISTALEIRA 0.65M SELENE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1084,11 +1084,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>810015004</v>
+        <v>810012004</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1097,11 +1097,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>720831</v>
+        <v>719064</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.7M MODELO 001</t>
+          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1127,7 +1127,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>810015008</v>
+        <v>810002042</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1136,15 +1136,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>720832</v>
+        <v>719065</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 0.8M MODELO 001</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1170,24 +1170,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>810015086</v>
+        <v>810014027</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>29/05/2025</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>717274</v>
+        <v>719066</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CRISTALEIRA 0.65M SELENE</t>
+          <t>MODULO LATERAL OURO PRETO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1213,24 +1213,24 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>810012004</v>
+        <v>810003058</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>719064</v>
+        <v>719068</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KIT 8 PES PLASTICO RETANGULAR 100X50X40 ABA U 78X28</t>
+          <t>RACK AURUM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1256,24 +1256,24 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>810002042</v>
+        <v>810012003</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>719065</v>
+        <v>720854</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1299,24 +1299,24 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>810014027</v>
+        <v>810014044</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>30/05/2025</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>719066</v>
+        <v>719074</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MODULO LATERAL OURO PRETO</t>
+          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1342,11 +1342,11 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>810003058</v>
+        <v>810001027</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>719068</v>
+        <v>719076</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RACK AURUM</t>
+          <t>ESTANTE NEW BAHIA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1385,11 +1385,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>810012003</v>
+        <v>810002036</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1398,11 +1398,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>720854</v>
+        <v>717269</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KIT 6 PES PLASTICO RETANGULAR TABACO 100X50X40 ABA U 78X28</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1428,24 +1428,24 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>810014044</v>
+        <v>810006049</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>719074</v>
+        <v>719080</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>COMPLEMENTO LATERAL SAO PAULO 2.2</t>
+          <t>PAINEL HOME MARAGOGI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1471,24 +1471,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>810001027</v>
+        <v>810002046</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>719076</v>
+        <v>720465</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ESTANTE NEW BAHIA</t>
+          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1514,24 +1514,24 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>810002036</v>
+        <v>810002040</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>717269</v>
+        <v>720466</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1557,11 +1557,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>810006049</v>
+        <v>810006076</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1570,11 +1570,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>719080</v>
+        <v>720467</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PAINEL HOME MARAGOGI</t>
+          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1600,11 +1600,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>810002046</v>
+        <v>810003078</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>720465</v>
+        <v>719085</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 + REFORCO EMBALAGEM</t>
+          <t>RACK ISTAMBUL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1643,24 +1643,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>810002040</v>
+        <v>810001023</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>720466</v>
+        <v>719086</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES + REFORCO EMBALAGEM</t>
+          <t>ESTANTE NEW LARA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1686,7 +1686,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>810006076</v>
+        <v>810012001</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1695,15 +1695,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>720467</v>
+        <v>720837</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA + REFORCO EMBALAGEM</t>
+          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1729,24 +1729,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>810003078</v>
+        <v>810013015</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>719085</v>
+        <v>719087</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RACK ISTAMBUL</t>
+          <t>CABECEIRA LARANJEIRAS 2.4</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1772,11 +1772,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>810001023</v>
+        <v>810012016</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1785,11 +1785,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>719086</v>
+        <v>720849</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ESTANTE NEW LARA</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1815,11 +1815,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>810012001</v>
+        <v>810006054</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1828,11 +1828,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>720837</v>
+        <v>719088</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SUPORTE DE TV UNIVERSAL 14 A 71 POLEGADAS + ADAPTADOR</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1858,24 +1858,24 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>810013015</v>
+        <v>810014048</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>719087</v>
+        <v>719089</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CABECEIRA LARANJEIRAS 2.4</t>
+          <t>NICHO CURVO 1.4</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1901,24 +1901,24 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>810012016</v>
+        <v>810003088</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>720849</v>
+        <v>714585</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>RACK SANTORINI</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1944,24 +1944,24 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>810006054</v>
+        <v>810002036</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>719088</v>
+        <v>719067</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>HOME GUARARAPES</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1987,24 +1987,24 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>810014048</v>
+        <v>810005021</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>719089</v>
+        <v>714586</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NICHO CURVO 1.4</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2030,24 +2030,24 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>810003088</v>
+        <v>810004014</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>714585</v>
+        <v>714589</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RACK SANTORINI</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2073,24 +2073,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>810002036</v>
+        <v>810002049</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>719067</v>
+        <v>719090</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HOME GUARARAPES</t>
+          <t>HOME NAPOLI</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2116,11 +2116,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>810005021</v>
+        <v>810014049</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2129,11 +2129,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>714586</v>
+        <v>719070</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>APARADOR MONACO</t>
+          <t>NICHO CURVO 2.2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2159,11 +2159,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>810004014</v>
+        <v>810014051</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2172,11 +2172,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>714589</v>
+        <v>720833</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO MONACO</t>
+          <t>BUFFET EVORA 1.6</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2202,24 +2202,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>810002049</v>
+        <v>810003060</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>719090</v>
+        <v>720834</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HOME NAPOLI</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>810014049</v>
+        <v>810006099</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2254,15 +2254,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>719070</v>
+        <v>720835</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NICHO CURVO 2.2</t>
+          <t>PAINEL HOME HAVANA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2288,24 +2288,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>810014051</v>
+        <v>810005014</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>720833</v>
+        <v>720836</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BUFFET EVORA 1.6</t>
+          <t>BUFFET 1.4 LUCCA PARTE 3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2331,11 +2331,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>810003060</v>
+        <v>810006093</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2344,11 +2344,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>720834</v>
+        <v>720838</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>PAINEL HOME LUGANO</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2374,24 +2374,24 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>810006099</v>
+        <v>810015073</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>720835</v>
+        <v>720839</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PAINEL HOME HAVANA</t>
+          <t>AEREO 1.2M ALLURE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2417,24 +2417,24 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>810005014</v>
+        <v>810002042</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>720836</v>
+        <v>720840</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 3</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2460,24 +2460,24 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>810006093</v>
+        <v>810006097</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>720838</v>
+        <v>720841</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAINEL HOME LUGANO</t>
+          <t>PAINEL GENOVA 2.0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2503,24 +2503,24 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>810015073</v>
+        <v>810005012</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>720839</v>
+        <v>720843</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AEREO 1.2M ALLURE</t>
+          <t>BUFFET 1.4 LUCCA PARTE 2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2546,24 +2546,24 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>810002042</v>
+        <v>810012019</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>720840</v>
+        <v>720844</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2589,24 +2589,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>810006097</v>
+        <v>810005020</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>720841</v>
+        <v>715952</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PAINEL GENOVA 2.0</t>
+          <t>APARADOR LISBOA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2632,11 +2632,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>810005012</v>
+        <v>810004013</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2645,11 +2645,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>720843</v>
+        <v>715953</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BUFFET 1.4 LUCCA PARTE 2</t>
+          <t>MESA DE CENTRO LISBOA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2675,11 +2675,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>810012019</v>
+        <v>810002050</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2688,11 +2688,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>720844</v>
+        <v>717275</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KIT FITA LED COB 9W BRANCA QUENTE 1 FITA (1150MM) - RACK SANTORINI</t>
+          <t>HOME ELDORADO 2.0 JAMAR</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2718,11 +2718,11 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>810005020</v>
+        <v>810006063</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2731,11 +2731,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>715952</v>
+        <v>720845</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>APARADOR LISBOA</t>
+          <t>PAINEL HOME ALVORADA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2761,11 +2761,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>810004013</v>
+        <v>810015062</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2774,11 +2774,11 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>715953</v>
+        <v>720846</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MESA DE CENTRO LISBOA</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2804,7 +2804,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>810002050</v>
+        <v>810015063</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2817,11 +2817,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>717275</v>
+        <v>720847</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0 JAMAR</t>
+          <t>AEREO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2847,24 +2847,24 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>810006063</v>
+        <v>810006059</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>720845</v>
+        <v>720848</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PAINEL HOME ALVORADA</t>
+          <t>PAINEL EXTENSIVEL TULUM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2890,24 +2890,24 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>810015062</v>
+        <v>810003089</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>720846</v>
+        <v>720850</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>RACK DUBAI 1.8</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2933,24 +2933,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>810015063</v>
+        <v>810003053</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>720847</v>
+        <v>720851</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AEREO 1.2M SELENE</t>
+          <t>RACK COLORADO</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2976,11 +2976,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>810006059</v>
+        <v>810006092</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2989,11 +2989,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>720848</v>
+        <v>720852</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PAINEL EXTENSIVEL TULUM</t>
+          <t>PAINEL HOME FRIBURGO</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3019,24 +3019,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>810003089</v>
+        <v>810015059</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>720850</v>
+        <v>720853</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.8</t>
+          <t>AEREO DUPLO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3062,24 +3062,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>810003053</v>
+        <v>810003065</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>720851</v>
+        <v>720855</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>RACK COLORADO</t>
+          <t>RACK CRONOS 1.8</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3105,24 +3105,24 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>810006092</v>
+        <v>810002043</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>720852</v>
+        <v>720856</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PAINEL HOME FRIBURGO</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3148,11 +3148,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>810015059</v>
+        <v>810014031</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3161,11 +3161,11 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>720853</v>
+        <v>720857</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AEREO DUPLO 0.8M SELENE</t>
+          <t>PRATELEIRA 2.2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3191,11 +3191,11 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>810003065</v>
+        <v>810014012</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3204,11 +3204,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>720855</v>
+        <v>720858</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>RACK CRONOS 1.8</t>
+          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3234,7 +3234,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>810002043</v>
+        <v>810014032</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3247,11 +3247,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>720856</v>
+        <v>719069</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3277,24 +3277,24 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>810014031</v>
+        <v>810006068</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>720857</v>
+        <v>719071</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PRATELEIRA 2.2</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3320,7 +3320,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>810014012</v>
+        <v>810014047</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3329,15 +3329,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>720858</v>
+        <v>719091</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MULTIUSO RETRO MARSALA  PARTE 2</t>
+          <t>PRATELEIRA CURVA 2.2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3363,24 +3363,24 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>810014032</v>
+        <v>810014046</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>719069</v>
+        <v>719082</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>PRATELEIRA CURVA 1.4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3406,11 +3406,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>810006068</v>
+        <v>810015058</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3419,11 +3419,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>719071</v>
+        <v>723251</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>TORRE QUENTE 0.65M SELENE</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3449,11 +3449,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>810014047</v>
+        <v>810015061</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3462,11 +3462,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>719091</v>
+        <v>723252</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 2.2</t>
+          <t>BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3492,11 +3492,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>810014046</v>
+        <v>810015062</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3505,11 +3505,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>719082</v>
+        <v>723254</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PRATELEIRA CURVA 1.4</t>
+          <t>TAMPO BALCAO 1.2M SELENE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3535,11 +3535,11 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>810015058</v>
+        <v>810003060</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3548,11 +3548,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>723251</v>
+        <v>723255</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TORRE QUENTE 0.65M SELENE</t>
+          <t>RACK ESMERALDA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3578,11 +3578,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>810015061</v>
+        <v>810012013</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3591,11 +3591,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>723252</v>
+        <v>723256</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BALCAO 1.2M SELENE</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3621,24 +3621,24 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>810015062</v>
+        <v>810015065</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>723254</v>
+        <v>723257</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TAMPO BALCAO 1.2M SELENE</t>
+          <t>BALCAO 0.8M SELENE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3664,24 +3664,24 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>810003060</v>
+        <v>810002042</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>723255</v>
+        <v>723258</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>RACK ESMERALDA</t>
+          <t>HOME ELDORADO 2.0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3707,24 +3707,24 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>810012013</v>
+        <v>810002041</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>16/06/2025</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>723256</v>
+        <v>723259</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 2 FITAS (1800MM) (FLOCO ISOPOR)</t>
+          <t>HOME ATLANTA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3750,24 +3750,24 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>810015065</v>
+        <v>810006068</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>723257</v>
+        <v>723260</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BALCAO 0.8M SELENE</t>
+          <t>PAINEL RIPADO MODULAR 1.4</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3793,24 +3793,24 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>810002042</v>
+        <v>810014032</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>723258</v>
+        <v>723261</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>HOME ELDORADO 2.0</t>
+          <t>MODULO RIPADO 0.4</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3836,24 +3836,24 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>810002041</v>
+        <v>810002033</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16/06/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>723259</v>
+        <v>723262</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>HOME ATLANTA</t>
+          <t>HOME ALAGOAS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3879,11 +3879,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>810006068</v>
+        <v>810012016</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>BRANCO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>723260</v>
+        <v>723263</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PAINEL RIPADO MODULAR 1.4</t>
+          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3922,24 +3922,24 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>810014032</v>
+        <v>810003090</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>723261</v>
+        <v>723264</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MODULO RIPADO 0.4</t>
+          <t>RACK DUBAI 1.6</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3965,24 +3965,24 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>810002033</v>
+        <v>810013011</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>723262</v>
+        <v>723265</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>HOME ALAGOAS</t>
+          <t>CABECEIRA ILHABELA</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4008,24 +4008,24 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>810012016</v>
+        <v>810006054</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BRANCO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>17/06/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>723263</v>
+        <v>723266</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>KIT FITA LED LUZ BRANCA QUENTE 1 FITA (1600MM)</t>
+          <t>PAINEL HOME ARARUNA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4051,24 +4051,24 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>810003090</v>
+        <v>810005011</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AMARELO</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>723264</v>
+        <v>720859</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>RACK DUBAI 1.6</t>
+          <t>BUFFET RETRO 1.4 PARTE 1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4094,7 +4094,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>810013011</v>
+        <v>810002048</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4103,15 +4103,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>723265</v>
+        <v>723189</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CABECEIRA ILHABELA</t>
+          <t>HOME MUNIQUE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4137,24 +4137,24 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>810006054</v>
+        <v>810015092</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>VERDE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18/06/2025</t>
+          <t>23/06/2025</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>723266</v>
+        <v>723269</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PAINEL HOME ARARUNA</t>
+          <t>AEREO MICROONDAS 0.8M SELENE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4180,7 +4180,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>810005011</v>
+        <v>810002043</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4193,11 +4193,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>720859</v>
+        <v>723270</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BUFFET RETRO 1.4 PARTE 1</t>
+          <t>HOME VIENA</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4223,24 +4223,24 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>810002048</v>
+        <v>810015074</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>30/06/2025</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>723189</v>
+        <v>723271</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>HOME MUNIQUE</t>
+          <t>CRISTALEIRA 0.7M ALLURE</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4266,24 +4266,24 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>810015092</v>
+        <v>810005021</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>AZUL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>723269</v>
+        <v>720860</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AEREO MICROONDAS 0.8M SELENE</t>
+          <t>APARADOR MONACO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4309,24 +4309,24 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>810002043</v>
+        <v>810004014</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARELO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>23/06/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>723270</v>
+        <v>720861</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>HOME VIENA</t>
+          <t>MESA DE CENTRO MONACO</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4345,135 +4345,6 @@
         </is>
       </c>
       <c r="I91" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>810015074</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>30/06/2025</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>723271</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CRISTALEIRA 0.7M ALLURE</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>810005021</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>AZUL</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>720860</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>APARADOR MONACO</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>N/C</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>810004014</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>AMARELO</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>07/07/2025</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>720861</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>MESA DE CENTRO MONACO</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>N/C</t>
         </is>
